--- a/data/AppBundleIDs.xlsx
+++ b/data/AppBundleIDs.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="480" yWindow="150" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Icons" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="390">
   <si>
     <t>App</t>
   </si>
@@ -46,13 +44,1153 @@
   </si>
   <si>
     <t>com.christianselig.Apollo</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>com.apple.Music</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>com.spotify.client</t>
+  </si>
+  <si>
+    <t>Podcasts</t>
+  </si>
+  <si>
+    <t>com.apple.podcasts</t>
+  </si>
+  <si>
+    <t>Audible</t>
+  </si>
+  <si>
+    <t>com.audible.iphone</t>
+  </si>
+  <si>
+    <t>Genuis</t>
+  </si>
+  <si>
+    <t>com.rapgenius.RapGenius</t>
+  </si>
+  <si>
+    <t>SoundCloud</t>
+  </si>
+  <si>
+    <t>com.soundcloud.TouchApp</t>
+  </si>
+  <si>
+    <t>Shazam</t>
+  </si>
+  <si>
+    <t>com.shazam.Shazam</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>com.google.Gmail</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>com.apple.mobilecal</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>com.apple.mobiletimer</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>com.apple.weather</t>
+  </si>
+  <si>
+    <t>GroupMe</t>
+  </si>
+  <si>
+    <t>com.groupme.iphone-app</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>com.google.Maps</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>com.apple.camera</t>
+  </si>
+  <si>
+    <t>Reminders</t>
+  </si>
+  <si>
+    <t>com.apple.reminders</t>
+  </si>
+  <si>
+    <t>Waze</t>
+  </si>
+  <si>
+    <t>com.waze.iphone</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>com.apple.mobileslideshow</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>com.apple.mobilenotes</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
+    <t>com.zimride.instant</t>
+  </si>
+  <si>
+    <t>Google Photos</t>
+  </si>
+  <si>
+    <t>com.google.photos</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>com.apple.MobileAddressBook</t>
+  </si>
+  <si>
+    <t>Hilton Honors</t>
+  </si>
+  <si>
+    <t>com.hilton.hhonors</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>com.burbn.layouts</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>com.apple.Preferences</t>
+  </si>
+  <si>
+    <t>Choice Hotels</t>
+  </si>
+  <si>
+    <t>com.choicehotels.iosapp</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>com.google.ios.youtube</t>
+  </si>
+  <si>
+    <t>ESPN</t>
+  </si>
+  <si>
+    <t>com.espn.ScoreCenter</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>com.apple.mobilesafari</t>
+  </si>
+  <si>
+    <t>Fios TV</t>
+  </si>
+  <si>
+    <t>com.verizon.fios.tv</t>
+  </si>
+  <si>
+    <t>Bleacher Report</t>
+  </si>
+  <si>
+    <t>com.bleacherreport.TeamStream</t>
+  </si>
+  <si>
+    <t>Raindrop</t>
+  </si>
+  <si>
+    <t>io.raindrop.ios</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>com.netflix.Netflix</t>
+  </si>
+  <si>
+    <t>FanDuel</t>
+  </si>
+  <si>
+    <t>com.fanduel.fd</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>org.mozilla.ios.Firefox</t>
+  </si>
+  <si>
+    <t>Hulu</t>
+  </si>
+  <si>
+    <t>com.hulu.plus</t>
+  </si>
+  <si>
+    <t>Sleeper</t>
+  </si>
+  <si>
+    <t>com.blitzstudios.sleeperbot</t>
+  </si>
+  <si>
+    <t>ExpressVPN</t>
+  </si>
+  <si>
+    <t>com.expressvpn.iosvpn</t>
+  </si>
+  <si>
+    <t>Prime Video</t>
+  </si>
+  <si>
+    <t>com.amazon.aiv.AIVApp</t>
+  </si>
+  <si>
+    <t>MyFios</t>
+  </si>
+  <si>
+    <t>com.verizon.ams.myvzhomeacct</t>
+  </si>
+  <si>
+    <t>HBO Now</t>
+  </si>
+  <si>
+    <t>com.hbo.hbonow</t>
+  </si>
+  <si>
+    <t>Nighthawk</t>
+  </si>
+  <si>
+    <t>com.netgear.ntgrup</t>
+  </si>
+  <si>
+    <t>Plex</t>
+  </si>
+  <si>
+    <t>com.plexapp.plex</t>
+  </si>
+  <si>
+    <t>Crunchyroll</t>
+  </si>
+  <si>
+    <t>com.crunchyroll.iphone</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>com.apple.TVRemote</t>
+  </si>
+  <si>
+    <t>Fire Tv</t>
+  </si>
+  <si>
+    <t>com.amazon.firetv.remote</t>
+  </si>
+  <si>
+    <t>VRV</t>
+  </si>
+  <si>
+    <t>com.ellation.vrv</t>
+  </si>
+  <si>
+    <t>Roku</t>
+  </si>
+  <si>
+    <t>com.roku.ios.roku</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>com.apple.tv</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>com.gplexdb.musicplayeriphone</t>
+  </si>
+  <si>
+    <t>Reelgood</t>
+  </si>
+  <si>
+    <t>com.reelgoodapp.Reelgood</t>
+  </si>
+  <si>
+    <t>App Store</t>
+  </si>
+  <si>
+    <t>com.apple.AppStore</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>com.atebits.Tweetie2</t>
+  </si>
+  <si>
+    <t>Home Assistant</t>
+  </si>
+  <si>
+    <t>io.robbie.HomeAssistant</t>
+  </si>
+  <si>
+    <t>Apple Watch</t>
+  </si>
+  <si>
+    <t>com.apple.Bridge</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>com.burbn.instagram</t>
+  </si>
+  <si>
+    <t>Lutron</t>
+  </si>
+  <si>
+    <t>com.lutron.lsb</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>com.oecoway.friendlyLite</t>
+  </si>
+  <si>
+    <t>Wyze</t>
+  </si>
+  <si>
+    <t>com.hualai.WyzeCam</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>com.toyopagroup.picaboo</t>
+  </si>
+  <si>
+    <t>Google Assistant</t>
+  </si>
+  <si>
+    <t>com.google.OPA</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>com.linkedin.LinkedIn</t>
+  </si>
+  <si>
+    <t>Google Home</t>
+  </si>
+  <si>
+    <t>com.google.Chromecast</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>net.whatsapp.WhatsApp</t>
+  </si>
+  <si>
+    <t>HassKit</t>
+  </si>
+  <si>
+    <t>com.thhkstudio.hasskitios</t>
+  </si>
+  <si>
+    <t>GIF Keyboard</t>
+  </si>
+  <si>
+    <t>com.riffsy.RiffsyKeyboard</t>
+  </si>
+  <si>
+    <t>VeSync</t>
+  </si>
+  <si>
+    <t>com.etekcity.vesyncPlatform</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>com.reddit.Reddit</t>
+  </si>
+  <si>
+    <t>LG ThinQ</t>
+  </si>
+  <si>
+    <t>com.lgeha.nuts</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>com.apple.Home</t>
+  </si>
+  <si>
+    <t>Phi Beta Sigma</t>
+  </si>
+  <si>
+    <t>com.guidebook.apps.pbshome</t>
+  </si>
+  <si>
+    <t>HiHello</t>
+  </si>
+  <si>
+    <t>me.hihello.app</t>
+  </si>
+  <si>
+    <t>Tweetlogix</t>
+  </si>
+  <si>
+    <t>com.onloft.Tweetlogix</t>
+  </si>
+  <si>
+    <t>Bitmoji</t>
+  </si>
+  <si>
+    <t>com.bitstrips.imoji</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>org.wikimedia.wikipedia</t>
+  </si>
+  <si>
+    <t>Fandom</t>
+  </si>
+  <si>
+    <t>com.fandom.app</t>
+  </si>
+  <si>
+    <t>iBooks</t>
+  </si>
+  <si>
+    <t>com.apple.iBooks</t>
+  </si>
+  <si>
+    <t>Kindle</t>
+  </si>
+  <si>
+    <t>com.amazon.Lassen</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>com.apple.news</t>
+  </si>
+  <si>
+    <t>Comic Box</t>
+  </si>
+  <si>
+    <t>Manga Storm</t>
+  </si>
+  <si>
+    <t>com.wayudaorerk.mangastormall</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>com.medium.reader</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>to.dev.ios</t>
+  </si>
+  <si>
+    <t>MangaPlus</t>
+  </si>
+  <si>
+    <t>jp.co.shueisha.mangaplus</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>com.hammerandchisel.discord</t>
+  </si>
+  <si>
+    <t>Gamefly</t>
+  </si>
+  <si>
+    <t>com.gamefly.gamecenter</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>tv.twitch</t>
+  </si>
+  <si>
+    <t>IGN</t>
+  </si>
+  <si>
+    <t>68RX859ZF4.com.fox.ign.iphone</t>
+  </si>
+  <si>
+    <t>PS App</t>
+  </si>
+  <si>
+    <t>com.playstation.eu.playstationadhoc</t>
+  </si>
+  <si>
+    <t>PS Messages</t>
+  </si>
+  <si>
+    <t>com.playstation.eu.mobilemessages</t>
+  </si>
+  <si>
+    <t>PS4SecondScreen</t>
+  </si>
+  <si>
+    <t>com.playstation.mobile2ndscreen</t>
+  </si>
+  <si>
+    <t>PS4RemotePlay</t>
+  </si>
+  <si>
+    <t>com.playstation.psremoteplay</t>
+  </si>
+  <si>
+    <t>Wunderlist</t>
+  </si>
+  <si>
+    <t>Duolingo</t>
+  </si>
+  <si>
+    <t>com.duolingo.DuolingoMobile</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>com.apple.Passbook</t>
+  </si>
+  <si>
+    <t>Doodle</t>
+  </si>
+  <si>
+    <t>com.doodle.Doodle-App</t>
+  </si>
+  <si>
+    <t>Google Translate</t>
+  </si>
+  <si>
+    <t>com.google.Translate</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>com.pnc.pncmobile</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>com.fogcreek.trello</t>
+  </si>
+  <si>
+    <t>Brilliant</t>
+  </si>
+  <si>
+    <t>com.brilliant.Brilliant</t>
+  </si>
+  <si>
+    <t>Citi Mobile</t>
+  </si>
+  <si>
+    <t>com.citigroup.citimobile</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>com.laser-focused.focus-ios</t>
+  </si>
+  <si>
+    <t>Cloud Academy</t>
+  </si>
+  <si>
+    <t>com.cloudacademy.application</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>com.chase</t>
+  </si>
+  <si>
+    <t>Lucidchart</t>
+  </si>
+  <si>
+    <t>com.lucidchart.app</t>
+  </si>
+  <si>
+    <t>iTunes U</t>
+  </si>
+  <si>
+    <t>com.apple.itunesu</t>
+  </si>
+  <si>
+    <t>USAA</t>
+  </si>
+  <si>
+    <t>com.usaa.UsaaMobile</t>
+  </si>
+  <si>
+    <t>Flow Diagrams</t>
+  </si>
+  <si>
+    <t>com.bezapps.flowdiaios</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>com.udemy</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>com.discoverfinancial.mobile</t>
+  </si>
+  <si>
+    <t>Namecheap</t>
+  </si>
+  <si>
+    <t>com.namecheap.iosapp</t>
+  </si>
+  <si>
+    <t>Kahn Academy</t>
+  </si>
+  <si>
+    <t>org.khanacademy.Khan-Academy</t>
+  </si>
+  <si>
+    <t>Cash App</t>
+  </si>
+  <si>
+    <t>com.squareup.cash</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>com.tinyspeck.chatlyio</t>
+  </si>
+  <si>
+    <t>AnkiApp</t>
+  </si>
+  <si>
+    <t>com.ankiapp.client</t>
+  </si>
+  <si>
+    <t>Paychex</t>
+  </si>
+  <si>
+    <t>com.paychex.paychexmobile</t>
+  </si>
+  <si>
+    <t>Todoist</t>
+  </si>
+  <si>
+    <t>com.todoist.ios</t>
+  </si>
+  <si>
+    <t>Coinbase</t>
+  </si>
+  <si>
+    <t>com.vilcsak.bitcoin2</t>
+  </si>
+  <si>
+    <t>Microsoft To Do</t>
+  </si>
+  <si>
+    <t>com.microsoft.to-do</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>com.squareup.square</t>
+  </si>
+  <si>
+    <t>Venmo</t>
+  </si>
+  <si>
+    <t>net.kortina.labs.Venmo</t>
+  </si>
+  <si>
+    <t>Credit Karma</t>
+  </si>
+  <si>
+    <t>com.creditkarma.mobile</t>
+  </si>
+  <si>
+    <t>eAccount (People's)</t>
+  </si>
+  <si>
+    <t>com.scm.png</t>
+  </si>
+  <si>
+    <t>Northwestern Mutual</t>
+  </si>
+  <si>
+    <t>com.nm.nm.ios</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>com.yourcompany.PPClient</t>
+  </si>
+  <si>
+    <t>Pass2U Wallet</t>
+  </si>
+  <si>
+    <t>net.pass2u.wallet</t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>com.robinhood.release.Robinhood</t>
+  </si>
+  <si>
+    <t>Virtual Wallet</t>
+  </si>
+  <si>
+    <t>com.PNC.VirtualWallet</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>com.amazon.Amazon</t>
+  </si>
+  <si>
+    <t>Shortcuts</t>
+  </si>
+  <si>
+    <t>is.workflow.my.app</t>
+  </si>
+  <si>
+    <t>FaceTime</t>
+  </si>
+  <si>
+    <t>com.apple.facetime</t>
+  </si>
+  <si>
+    <t>Groupon</t>
+  </si>
+  <si>
+    <t>com.groupon.grouponapp</t>
+  </si>
+  <si>
+    <t>Toolbox</t>
+  </si>
+  <si>
+    <t>com.alexhay.ToolboxProForShortcuts</t>
+  </si>
+  <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>com.freeconferencecall.FreeConferenceCallVideo</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>com.ebay.iphone</t>
+  </si>
+  <si>
+    <t>IFTTT</t>
+  </si>
+  <si>
+    <t>com.ifttt.ifttt</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>us.zoom.videomeetings</t>
+  </si>
+  <si>
+    <t>Giant Eagle</t>
+  </si>
+  <si>
+    <t>com.gianteagle.apps.perksapp</t>
+  </si>
+  <si>
+    <t>GizmoPack</t>
+  </si>
+  <si>
+    <t>ke.bou.GizmoPack</t>
+  </si>
+  <si>
+    <t>Google Meet</t>
+  </si>
+  <si>
+    <t>com.google.meetings</t>
+  </si>
+  <si>
+    <t>Rite Aid</t>
+  </si>
+  <si>
+    <t>com.riteaid.mobile</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>com.skype.skype</t>
+  </si>
+  <si>
+    <t>Walgreens</t>
+  </si>
+  <si>
+    <t>com.usablenet.walgreens</t>
+  </si>
+  <si>
+    <t>Webex Meet</t>
+  </si>
+  <si>
+    <t>com.webex.meeting</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
+    <t>com.lowes.mobile.consumer.iphone.lowes</t>
+  </si>
+  <si>
+    <t>Google Duo</t>
+  </si>
+  <si>
+    <t>com.google.Tachyon</t>
+  </si>
+  <si>
+    <t>DealsNews</t>
+  </si>
+  <si>
+    <t>com.dealnews.DealNews</t>
+  </si>
+  <si>
+    <t>OfferUp</t>
+  </si>
+  <si>
+    <t>com.offerup.iphone.consumer</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>com.etsy.etsyforios</t>
+  </si>
+  <si>
+    <t>Eventbrite</t>
+  </si>
+  <si>
+    <t>com.eventbrite.attendee</t>
+  </si>
+  <si>
+    <t>Fandango</t>
+  </si>
+  <si>
+    <t>com.fandango.fandango</t>
+  </si>
+  <si>
+    <t>Redbox</t>
+  </si>
+  <si>
+    <t>com.redbox.m</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>com.apple.Fitness</t>
+  </si>
+  <si>
+    <t>Uber Eats</t>
+  </si>
+  <si>
+    <t>com.ubercab.UberEats</t>
+  </si>
+  <si>
+    <t>1Password</t>
+  </si>
+  <si>
+    <t>com.agilebits.onepassword-ios</t>
+  </si>
+  <si>
+    <t>MyUPMC</t>
+  </si>
+  <si>
+    <t>com.upmc.enterprises.myupmc</t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>com.yelp.yelpiphone</t>
+  </si>
+  <si>
+    <t>Find My iPhone</t>
+  </si>
+  <si>
+    <t>com.apple.mobileme.fmip1</t>
+  </si>
+  <si>
+    <t>UPMC Health Plan</t>
+  </si>
+  <si>
+    <t>com.upmchealthplan.upmchealthplan</t>
+  </si>
+  <si>
+    <t>Zomato</t>
+  </si>
+  <si>
+    <t>com.zomato.zomato</t>
+  </si>
+  <si>
+    <t>Authy</t>
+  </si>
+  <si>
+    <t>com.authy</t>
+  </si>
+  <si>
+    <t>Runtastic Pro</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>com.restaurant.mob</t>
+  </si>
+  <si>
+    <t>Google Authenticator</t>
+  </si>
+  <si>
+    <t>com.google.Authenticator</t>
+  </si>
+  <si>
+    <t>Squats Pro</t>
+  </si>
+  <si>
+    <t>GrubHub</t>
+  </si>
+  <si>
+    <t>com.grubhub.search</t>
+  </si>
+  <si>
+    <t>AdGuard</t>
+  </si>
+  <si>
+    <t>com.adguard.AdguardExtension</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>com.apple.Health</t>
+  </si>
+  <si>
+    <t>Chipotle</t>
+  </si>
+  <si>
+    <t>com.chipotle.Chipotle</t>
+  </si>
+  <si>
+    <t>AdBlock Pro</t>
+  </si>
+  <si>
+    <t>com.samuellaska.AdBuster</t>
+  </si>
+  <si>
+    <t>Domino's</t>
+  </si>
+  <si>
+    <t>com.dominos.iphone</t>
+  </si>
+  <si>
+    <t>OpenTable</t>
+  </si>
+  <si>
+    <t>com.contextoptional.OpenTable</t>
+  </si>
+  <si>
+    <t>Piada</t>
+  </si>
+  <si>
+    <t>com.olo.piada</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>com.apple.DocumentsApp</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>com.apple.Pages</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>com.apple.Numbers</t>
+  </si>
+  <si>
+    <t>iMovie</t>
+  </si>
+  <si>
+    <t>com.apple.iMovie</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>com.google.Drive</t>
+  </si>
+  <si>
+    <t>Google Docs</t>
+  </si>
+  <si>
+    <t>com.google.Docs</t>
+  </si>
+  <si>
+    <t>Google Sheets</t>
+  </si>
+  <si>
+    <t>com.google.Sheets</t>
+  </si>
+  <si>
+    <t>Google Pages</t>
+  </si>
+  <si>
+    <t>com.google.Slides</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>com.getdropbox.Dropbox</t>
+  </si>
+  <si>
+    <t>Keynote</t>
+  </si>
+  <si>
+    <t>com.apple.Keynote</t>
+  </si>
+  <si>
+    <t>Google Keep</t>
+  </si>
+  <si>
+    <t>com.google.Keep</t>
+  </si>
+  <si>
+    <t>Remote Desktop</t>
+  </si>
+  <si>
+    <t>com.google.ChromeRemoteDesktop</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Alt 1</t>
+  </si>
+  <si>
+    <t>Alt 2</t>
+  </si>
+  <si>
+    <t>Alt 3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Copied</t>
+  </si>
+  <si>
+    <t>Test Flight</t>
+  </si>
+  <si>
+    <t>Wish List</t>
+  </si>
+  <si>
+    <t>Plague Inc.</t>
+  </si>
+  <si>
+    <t>Bloons TD 6</t>
+  </si>
+  <si>
+    <t>com.ninjakiwi.bloonstd6</t>
+  </si>
+  <si>
+    <t>com.ndemiccreations.plagueinc</t>
+  </si>
+  <si>
+    <t>com.hvt.wishlist</t>
+  </si>
+  <si>
+    <t>com.apple.TestFlight</t>
+  </si>
+  <si>
+    <t>com.6wunderkinder.wunderlistmobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +1200,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,27 +1215,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -111,9 +1229,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,84 +1539,2155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58" t="s">
+        <v>388</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>383</v>
+      </c>
+      <c r="B100" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>384</v>
+      </c>
+      <c r="B101" t="s">
+        <v>385</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>213</v>
+      </c>
+      <c r="B123" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>231</v>
+      </c>
+      <c r="B126" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>251</v>
+      </c>
+      <c r="B132" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" t="s">
+        <v>256</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>299</v>
+      </c>
+      <c r="B145" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>303</v>
+      </c>
+      <c r="B147" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>305</v>
+      </c>
+      <c r="B148" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>307</v>
+      </c>
+      <c r="B149" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>271</v>
+      </c>
+      <c r="B152" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155" t="s">
+        <v>268</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>279</v>
+      </c>
+      <c r="B157" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>285</v>
+      </c>
+      <c r="B158" t="s">
+        <v>286</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>293</v>
+      </c>
+      <c r="B160" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>297</v>
+      </c>
+      <c r="B161" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>311</v>
+      </c>
+      <c r="B162" t="s">
+        <v>312</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>317</v>
+      </c>
+      <c r="B163" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>339</v>
+      </c>
+      <c r="B167" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>313</v>
+      </c>
+      <c r="B168" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>319</v>
+      </c>
+      <c r="B169" t="s">
+        <v>320</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>325</v>
+      </c>
+      <c r="B170" t="s">
+        <v>326</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>330</v>
+      </c>
+      <c r="B171" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>335</v>
+      </c>
+      <c r="B172" t="s">
+        <v>336</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>315</v>
+      </c>
+      <c r="B177" t="s">
+        <v>316</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>321</v>
+      </c>
+      <c r="B178" t="s">
+        <v>322</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>327</v>
+      </c>
+      <c r="B179" t="s">
+        <v>328</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>332</v>
+      </c>
+      <c r="B180" t="s">
+        <v>333</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>337</v>
+      </c>
+      <c r="B181" t="s">
+        <v>338</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" t="s">
+        <v>354</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>355</v>
+      </c>
+      <c r="B185" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>357</v>
+      </c>
+      <c r="B186" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>359</v>
+      </c>
+      <c r="B187" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>361</v>
+      </c>
+      <c r="B188" t="s">
+        <v>362</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>363</v>
+      </c>
+      <c r="B189" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>365</v>
+      </c>
+      <c r="B190" t="s">
+        <v>366</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>367</v>
+      </c>
+      <c r="B191" t="s">
+        <v>368</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>369</v>
+      </c>
+      <c r="B192" t="s">
+        <v>370</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>371</v>
+      </c>
+      <c r="B193" t="s">
+        <v>372</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>373</v>
+      </c>
+      <c r="B194" t="s">
+        <v>374</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>